--- a/natmiOut/OldD2/LR-pairs_lrc2p/Spon1-Lrp8.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Spon1-Lrp8.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.539312225650411</v>
+        <v>0.545056</v>
       </c>
       <c r="H2">
-        <v>0.539312225650411</v>
+        <v>1.090112</v>
       </c>
       <c r="I2">
-        <v>0.02698659561767571</v>
+        <v>0.02422165523531875</v>
       </c>
       <c r="J2">
-        <v>0.02698659561767571</v>
+        <v>0.01749764391946633</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.580882605382533</v>
+        <v>0.58839</v>
       </c>
       <c r="N2">
-        <v>0.580882605382533</v>
+        <v>1.17678</v>
       </c>
       <c r="O2">
-        <v>0.07965711938179147</v>
+        <v>0.05989892139727841</v>
       </c>
       <c r="P2">
-        <v>0.07965711938179147</v>
+        <v>0.04284574258344266</v>
       </c>
       <c r="Q2">
-        <v>0.3132770907504633</v>
+        <v>0.32070549984</v>
       </c>
       <c r="R2">
-        <v>0.3132770907504633</v>
+        <v>1.28282199936</v>
       </c>
       <c r="S2">
-        <v>0.002149674468825324</v>
+        <v>0.001450851023052335</v>
       </c>
       <c r="T2">
-        <v>0.002149674468825324</v>
+        <v>0.0007496995471901951</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.539312225650411</v>
+        <v>0.545056</v>
       </c>
       <c r="H3">
-        <v>0.539312225650411</v>
+        <v>1.090112</v>
       </c>
       <c r="I3">
-        <v>0.02698659561767571</v>
+        <v>0.02422165523531875</v>
       </c>
       <c r="J3">
-        <v>0.02698659561767571</v>
+        <v>0.01749764391946633</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.83225717595595</v>
+        <v>3.33196</v>
       </c>
       <c r="N3">
-        <v>2.83225717595595</v>
+        <v>9.99588</v>
       </c>
       <c r="O3">
-        <v>0.3883907796421041</v>
+        <v>0.3391981681178738</v>
       </c>
       <c r="P3">
-        <v>0.3883907796421041</v>
+        <v>0.3639430491468098</v>
       </c>
       <c r="Q3">
-        <v>1.527470921179151</v>
+        <v>1.81610478976</v>
       </c>
       <c r="R3">
-        <v>1.527470921179151</v>
+        <v>10.89662873856</v>
       </c>
       <c r="S3">
-        <v>0.01048134491183526</v>
+        <v>0.008215941084602829</v>
       </c>
       <c r="T3">
-        <v>0.01048134491183526</v>
+        <v>0.006368145880935712</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.539312225650411</v>
+        <v>0.545056</v>
       </c>
       <c r="H4">
-        <v>0.539312225650411</v>
+        <v>1.090112</v>
       </c>
       <c r="I4">
-        <v>0.02698659561767571</v>
+        <v>0.02422165523531875</v>
       </c>
       <c r="J4">
-        <v>0.02698659561767571</v>
+        <v>0.01749764391946633</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.31456670115774</v>
+        <v>1.703133333333334</v>
       </c>
       <c r="N4">
-        <v>1.31456670115774</v>
+        <v>5.109400000000001</v>
       </c>
       <c r="O4">
-        <v>0.1802680880424908</v>
+        <v>0.173381345132341</v>
       </c>
       <c r="P4">
-        <v>0.1802680880424908</v>
+        <v>0.1860297057698482</v>
       </c>
       <c r="Q4">
-        <v>0.7089618933672995</v>
+        <v>0.9283030421333335</v>
       </c>
       <c r="R4">
-        <v>0.7089618933672995</v>
+        <v>5.569818252800001</v>
       </c>
       <c r="S4">
-        <v>0.00486482199477426</v>
+        <v>0.004199583166031375</v>
       </c>
       <c r="T4">
-        <v>0.00486482199477426</v>
+        <v>0.003255081550003895</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.539312225650411</v>
+        <v>0.545056</v>
       </c>
       <c r="H5">
-        <v>0.539312225650411</v>
+        <v>1.090112</v>
       </c>
       <c r="I5">
-        <v>0.02698659561767571</v>
+        <v>0.02422165523531875</v>
       </c>
       <c r="J5">
-        <v>0.02698659561767571</v>
+        <v>0.01749764391946633</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.48518049587064</v>
+        <v>2.225409</v>
       </c>
       <c r="N5">
-        <v>1.48518049587064</v>
+        <v>6.676227000000001</v>
       </c>
       <c r="O5">
-        <v>0.2036645597007805</v>
+        <v>0.2265497353248627</v>
       </c>
       <c r="P5">
-        <v>0.2036645597007805</v>
+        <v>0.2430767887545928</v>
       </c>
       <c r="Q5">
-        <v>0.800975998720576</v>
+        <v>1.212972527904</v>
       </c>
       <c r="R5">
-        <v>0.800975998720576</v>
+        <v>7.277835167424</v>
       </c>
       <c r="S5">
-        <v>0.005496213114296936</v>
+        <v>0.005487409582691539</v>
       </c>
       <c r="T5">
-        <v>0.005496213114296936</v>
+        <v>0.004253271094715201</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.539312225650411</v>
+        <v>0.545056</v>
       </c>
       <c r="H6">
-        <v>0.539312225650411</v>
+        <v>1.090112</v>
       </c>
       <c r="I6">
-        <v>0.02698659561767571</v>
+        <v>0.02422165523531875</v>
       </c>
       <c r="J6">
-        <v>0.02698659561767571</v>
+        <v>0.01749764391946633</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.376180396513018</v>
+        <v>0.558907</v>
       </c>
       <c r="N6">
-        <v>0.376180396513018</v>
+        <v>1.676721</v>
       </c>
       <c r="O6">
-        <v>0.05158606313300387</v>
+        <v>0.05689751093898382</v>
       </c>
       <c r="P6">
-        <v>0.05158606313300387</v>
+        <v>0.06104824720869879</v>
       </c>
       <c r="Q6">
-        <v>0.2028786868894898</v>
+        <v>0.304635613792</v>
       </c>
       <c r="R6">
-        <v>0.2028786868894898</v>
+        <v>1.827813682752</v>
       </c>
       <c r="S6">
-        <v>0.001392132225278265</v>
+        <v>0.001378151893711843</v>
       </c>
       <c r="T6">
-        <v>0.001392132225278265</v>
+        <v>0.001068200491565366</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.539312225650411</v>
+        <v>0.545056</v>
       </c>
       <c r="H7">
-        <v>0.539312225650411</v>
+        <v>1.090112</v>
       </c>
       <c r="I7">
-        <v>0.02698659561767571</v>
+        <v>0.02422165523531875</v>
       </c>
       <c r="J7">
-        <v>0.02698659561767571</v>
+        <v>0.01749764391946633</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.703219992409914</v>
+        <v>1.415249</v>
       </c>
       <c r="N7">
-        <v>0.703219992409914</v>
+        <v>2.830498</v>
       </c>
       <c r="O7">
-        <v>0.09643339009982929</v>
+        <v>0.1440743190886604</v>
       </c>
       <c r="P7">
-        <v>0.09643339009982929</v>
+        <v>0.1030564665366078</v>
       </c>
       <c r="Q7">
-        <v>0.3792551392284558</v>
+        <v>0.771389958944</v>
       </c>
       <c r="R7">
-        <v>0.3792551392284558</v>
+        <v>3.085559835776</v>
       </c>
       <c r="S7">
-        <v>0.002602408902665665</v>
+        <v>0.003489718485228835</v>
       </c>
       <c r="T7">
-        <v>0.002602408902665665</v>
+        <v>0.00180324535505596</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.39958244302083</v>
+        <v>4.674897000000001</v>
       </c>
       <c r="H8">
-        <v>4.39958244302083</v>
+        <v>14.024691</v>
       </c>
       <c r="I8">
-        <v>0.2201503074276515</v>
+        <v>0.2077469900241919</v>
       </c>
       <c r="J8">
-        <v>0.2201503074276515</v>
+        <v>0.225113611444094</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.580882605382533</v>
+        <v>0.58839</v>
       </c>
       <c r="N8">
-        <v>0.580882605382533</v>
+        <v>1.17678</v>
       </c>
       <c r="O8">
-        <v>0.07965711938179147</v>
+        <v>0.05989892139727841</v>
       </c>
       <c r="P8">
-        <v>0.07965711938179147</v>
+        <v>0.04284574258344266</v>
       </c>
       <c r="Q8">
-        <v>2.55564091209719</v>
+        <v>2.75066264583</v>
       </c>
       <c r="R8">
-        <v>2.55564091209719</v>
+        <v>16.50397587498</v>
       </c>
       <c r="S8">
-        <v>0.01753653932070253</v>
+        <v>0.01244382062598026</v>
       </c>
       <c r="T8">
-        <v>0.01753653932070253</v>
+        <v>0.009645159847962782</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.39958244302083</v>
+        <v>4.674897000000001</v>
       </c>
       <c r="H9">
-        <v>4.39958244302083</v>
+        <v>14.024691</v>
       </c>
       <c r="I9">
-        <v>0.2201503074276515</v>
+        <v>0.2077469900241919</v>
       </c>
       <c r="J9">
-        <v>0.2201503074276515</v>
+        <v>0.225113611444094</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.83225717595595</v>
+        <v>3.33196</v>
       </c>
       <c r="N9">
-        <v>2.83225717595595</v>
+        <v>9.99588</v>
       </c>
       <c r="O9">
-        <v>0.3883907796421041</v>
+        <v>0.3391981681178738</v>
       </c>
       <c r="P9">
-        <v>0.3883907796421041</v>
+        <v>0.3639430491468098</v>
       </c>
       <c r="Q9">
-        <v>12.46074894545556</v>
+        <v>15.57656980812</v>
       </c>
       <c r="R9">
-        <v>12.46074894545556</v>
+        <v>140.18912827308</v>
       </c>
       <c r="S9">
-        <v>0.08550434954027444</v>
+        <v>0.07046739844820811</v>
       </c>
       <c r="T9">
-        <v>0.08550434954027444</v>
+        <v>0.08192853415341374</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.39958244302083</v>
+        <v>4.674897000000001</v>
       </c>
       <c r="H10">
-        <v>4.39958244302083</v>
+        <v>14.024691</v>
       </c>
       <c r="I10">
-        <v>0.2201503074276515</v>
+        <v>0.2077469900241919</v>
       </c>
       <c r="J10">
-        <v>0.2201503074276515</v>
+        <v>0.225113611444094</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.31456670115774</v>
+        <v>1.703133333333334</v>
       </c>
       <c r="N10">
-        <v>1.31456670115774</v>
+        <v>5.109400000000001</v>
       </c>
       <c r="O10">
-        <v>0.1802680880424908</v>
+        <v>0.173381345132341</v>
       </c>
       <c r="P10">
-        <v>0.1802680880424908</v>
+        <v>0.1860297057698482</v>
       </c>
       <c r="Q10">
-        <v>5.783544578593403</v>
+        <v>7.961972910600002</v>
       </c>
       <c r="R10">
-        <v>5.783544578593403</v>
+        <v>71.65775619540001</v>
       </c>
       <c r="S10">
-        <v>0.03968607500194928</v>
+        <v>0.03601945257758942</v>
       </c>
       <c r="T10">
-        <v>0.03968607500194928</v>
+        <v>0.04187781890173273</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.39958244302083</v>
+        <v>4.674897000000001</v>
       </c>
       <c r="H11">
-        <v>4.39958244302083</v>
+        <v>14.024691</v>
       </c>
       <c r="I11">
-        <v>0.2201503074276515</v>
+        <v>0.2077469900241919</v>
       </c>
       <c r="J11">
-        <v>0.2201503074276515</v>
+        <v>0.225113611444094</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.48518049587064</v>
+        <v>2.225409</v>
       </c>
       <c r="N11">
-        <v>1.48518049587064</v>
+        <v>6.676227000000001</v>
       </c>
       <c r="O11">
-        <v>0.2036645597007805</v>
+        <v>0.2265497353248627</v>
       </c>
       <c r="P11">
-        <v>0.2036645597007805</v>
+        <v>0.2430767887545928</v>
       </c>
       <c r="Q11">
-        <v>6.534174034349439</v>
+        <v>10.403557857873</v>
       </c>
       <c r="R11">
-        <v>6.534174034349439</v>
+        <v>93.63202072085701</v>
       </c>
       <c r="S11">
-        <v>0.04483681543024411</v>
+        <v>0.04706502560451758</v>
       </c>
       <c r="T11">
-        <v>0.04483681543024411</v>
+        <v>0.05471989377477951</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.39958244302083</v>
+        <v>4.674897000000001</v>
       </c>
       <c r="H12">
-        <v>4.39958244302083</v>
+        <v>14.024691</v>
       </c>
       <c r="I12">
-        <v>0.2201503074276515</v>
+        <v>0.2077469900241919</v>
       </c>
       <c r="J12">
-        <v>0.2201503074276515</v>
+        <v>0.225113611444094</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.376180396513018</v>
+        <v>0.558907</v>
       </c>
       <c r="N12">
-        <v>0.376180396513018</v>
+        <v>1.676721</v>
       </c>
       <c r="O12">
-        <v>0.05158606313300387</v>
+        <v>0.05689751093898382</v>
       </c>
       <c r="P12">
-        <v>0.05158606313300387</v>
+        <v>0.06104824720869879</v>
       </c>
       <c r="Q12">
-        <v>1.655036667907288</v>
+        <v>2.612832657579001</v>
       </c>
       <c r="R12">
-        <v>1.655036667907288</v>
+        <v>23.515493918211</v>
       </c>
       <c r="S12">
-        <v>0.01135668765771304</v>
+        <v>0.01182028663744242</v>
       </c>
       <c r="T12">
-        <v>0.01135668765771304</v>
+        <v>0.01374279140148202</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.39958244302083</v>
+        <v>4.674897000000001</v>
       </c>
       <c r="H13">
-        <v>4.39958244302083</v>
+        <v>14.024691</v>
       </c>
       <c r="I13">
-        <v>0.2201503074276515</v>
+        <v>0.2077469900241919</v>
       </c>
       <c r="J13">
-        <v>0.2201503074276515</v>
+        <v>0.225113611444094</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.703219992409914</v>
+        <v>1.415249</v>
       </c>
       <c r="N13">
-        <v>0.703219992409914</v>
+        <v>2.830498</v>
       </c>
       <c r="O13">
-        <v>0.09643339009982929</v>
+        <v>0.1440743190886604</v>
       </c>
       <c r="P13">
-        <v>0.09643339009982929</v>
+        <v>0.1030564665366078</v>
       </c>
       <c r="Q13">
-        <v>3.093874332187899</v>
+        <v>6.616143304353001</v>
       </c>
       <c r="R13">
-        <v>3.093874332187899</v>
+        <v>39.696859826118</v>
       </c>
       <c r="S13">
-        <v>0.02122984047676806</v>
+        <v>0.02993100613045417</v>
       </c>
       <c r="T13">
-        <v>0.02122984047676806</v>
+        <v>0.02319941336472319</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.59488294349706</v>
+        <v>2.127485666666666</v>
       </c>
       <c r="H14">
-        <v>1.59488294349706</v>
+        <v>6.382457</v>
       </c>
       <c r="I14">
-        <v>0.07980620317252525</v>
+        <v>0.09454299069468508</v>
       </c>
       <c r="J14">
-        <v>0.07980620317252525</v>
+        <v>0.1024463173667525</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.580882605382533</v>
+        <v>0.58839</v>
       </c>
       <c r="N14">
-        <v>0.580882605382533</v>
+        <v>1.17678</v>
       </c>
       <c r="O14">
-        <v>0.07965711938179147</v>
+        <v>0.05989892139727841</v>
       </c>
       <c r="P14">
-        <v>0.07965711938179147</v>
+        <v>0.04284574258344266</v>
       </c>
       <c r="Q14">
-        <v>0.9264397594987354</v>
+        <v>1.25179129141</v>
       </c>
       <c r="R14">
-        <v>0.9264397594987354</v>
+        <v>7.510747748459999</v>
       </c>
       <c r="S14">
-        <v>0.006357132253521349</v>
+        <v>0.005663023168284566</v>
       </c>
       <c r="T14">
-        <v>0.006357132253521349</v>
+        <v>0.004389388542517549</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.59488294349706</v>
+        <v>2.127485666666666</v>
       </c>
       <c r="H15">
-        <v>1.59488294349706</v>
+        <v>6.382457</v>
       </c>
       <c r="I15">
-        <v>0.07980620317252525</v>
+        <v>0.09454299069468508</v>
       </c>
       <c r="J15">
-        <v>0.07980620317252525</v>
+        <v>0.1024463173667525</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.83225717595595</v>
+        <v>3.33196</v>
       </c>
       <c r="N15">
-        <v>2.83225717595595</v>
+        <v>9.99588</v>
       </c>
       <c r="O15">
-        <v>0.3883907796421041</v>
+        <v>0.3391981681178738</v>
       </c>
       <c r="P15">
-        <v>0.3883907796421041</v>
+        <v>0.3639430491468098</v>
       </c>
       <c r="Q15">
-        <v>4.517118661529296</v>
+        <v>7.088697141906666</v>
       </c>
       <c r="R15">
-        <v>4.517118661529296</v>
+        <v>63.79827427716</v>
       </c>
       <c r="S15">
-        <v>0.03099599347045324</v>
+        <v>0.03206880925202237</v>
       </c>
       <c r="T15">
-        <v>0.03099599347045324</v>
+        <v>0.03728462511631769</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.59488294349706</v>
+        <v>2.127485666666666</v>
       </c>
       <c r="H16">
-        <v>1.59488294349706</v>
+        <v>6.382457</v>
       </c>
       <c r="I16">
-        <v>0.07980620317252525</v>
+        <v>0.09454299069468508</v>
       </c>
       <c r="J16">
-        <v>0.07980620317252525</v>
+        <v>0.1024463173667525</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.31456670115774</v>
+        <v>1.703133333333334</v>
       </c>
       <c r="N16">
-        <v>1.31456670115774</v>
+        <v>5.109400000000001</v>
       </c>
       <c r="O16">
-        <v>0.1802680880424908</v>
+        <v>0.173381345132341</v>
       </c>
       <c r="P16">
-        <v>0.1802680880424908</v>
+        <v>0.1860297057698482</v>
       </c>
       <c r="Q16">
-        <v>2.096580009765676</v>
+        <v>3.623391755088889</v>
       </c>
       <c r="R16">
-        <v>2.096580009765676</v>
+        <v>32.6105257958</v>
       </c>
       <c r="S16">
-        <v>0.01438651165984169</v>
+        <v>0.0163919908994789</v>
       </c>
       <c r="T16">
-        <v>0.01438651165984169</v>
+        <v>0.01905805827694146</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.59488294349706</v>
+        <v>2.127485666666666</v>
       </c>
       <c r="H17">
-        <v>1.59488294349706</v>
+        <v>6.382457</v>
       </c>
       <c r="I17">
-        <v>0.07980620317252525</v>
+        <v>0.09454299069468508</v>
       </c>
       <c r="J17">
-        <v>0.07980620317252525</v>
+        <v>0.1024463173667525</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.48518049587064</v>
+        <v>2.225409</v>
       </c>
       <c r="N17">
-        <v>1.48518049587064</v>
+        <v>6.676227000000001</v>
       </c>
       <c r="O17">
-        <v>0.2036645597007805</v>
+        <v>0.2265497353248627</v>
       </c>
       <c r="P17">
-        <v>0.2036645597007805</v>
+        <v>0.2430767887545928</v>
       </c>
       <c r="Q17">
-        <v>2.36868904087859</v>
+        <v>4.734525749971001</v>
       </c>
       <c r="R17">
-        <v>2.36868904087859</v>
+        <v>42.610731749739</v>
       </c>
       <c r="S17">
-        <v>0.01625369523052339</v>
+        <v>0.02141868951870186</v>
       </c>
       <c r="T17">
-        <v>0.01625369523052339</v>
+        <v>0.02490232184524407</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.59488294349706</v>
+        <v>2.127485666666666</v>
       </c>
       <c r="H18">
-        <v>1.59488294349706</v>
+        <v>6.382457</v>
       </c>
       <c r="I18">
-        <v>0.07980620317252525</v>
+        <v>0.09454299069468508</v>
       </c>
       <c r="J18">
-        <v>0.07980620317252525</v>
+        <v>0.1024463173667525</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.376180396513018</v>
+        <v>0.558907</v>
       </c>
       <c r="N18">
-        <v>0.376180396513018</v>
+        <v>1.676721</v>
       </c>
       <c r="O18">
-        <v>0.05158606313300387</v>
+        <v>0.05689751093898382</v>
       </c>
       <c r="P18">
-        <v>0.05158606313300387</v>
+        <v>0.06104824720869879</v>
       </c>
       <c r="Q18">
-        <v>0.5999636980765732</v>
+        <v>1.189066631499667</v>
       </c>
       <c r="R18">
-        <v>0.5999636980765732</v>
+        <v>10.701599683497</v>
       </c>
       <c r="S18">
-        <v>0.004116887835263222</v>
+        <v>0.00537926084725509</v>
       </c>
       <c r="T18">
-        <v>0.004116887835263222</v>
+        <v>0.006254168108226319</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.59488294349706</v>
+        <v>2.127485666666666</v>
       </c>
       <c r="H19">
-        <v>1.59488294349706</v>
+        <v>6.382457</v>
       </c>
       <c r="I19">
-        <v>0.07980620317252525</v>
+        <v>0.09454299069468508</v>
       </c>
       <c r="J19">
-        <v>0.07980620317252525</v>
+        <v>0.1024463173667525</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.703219992409914</v>
+        <v>1.415249</v>
       </c>
       <c r="N19">
-        <v>0.703219992409914</v>
+        <v>2.830498</v>
       </c>
       <c r="O19">
-        <v>0.09643339009982929</v>
+        <v>0.1440743190886604</v>
       </c>
       <c r="P19">
-        <v>0.09643339009982929</v>
+        <v>0.1030564665366078</v>
       </c>
       <c r="Q19">
-        <v>1.121553571420704</v>
+        <v>3.010921962264333</v>
       </c>
       <c r="R19">
-        <v>1.121553571420704</v>
+        <v>18.065531773586</v>
       </c>
       <c r="S19">
-        <v>0.007695982722922361</v>
+        <v>0.0136212170089423</v>
       </c>
       <c r="T19">
-        <v>0.007695982722922361</v>
+        <v>0.01055775547750543</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.018596952689251</v>
+        <v>9.447223666666668</v>
       </c>
       <c r="H20">
-        <v>8.018596952689251</v>
+        <v>28.341671</v>
       </c>
       <c r="I20">
-        <v>0.4012418467287282</v>
+        <v>0.4198236412129101</v>
       </c>
       <c r="J20">
-        <v>0.4012418467287282</v>
+        <v>0.4549188223234542</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.580882605382533</v>
+        <v>0.58839</v>
       </c>
       <c r="N20">
-        <v>0.580882605382533</v>
+        <v>1.17678</v>
       </c>
       <c r="O20">
-        <v>0.07965711938179147</v>
+        <v>0.05989892139727841</v>
       </c>
       <c r="P20">
-        <v>0.07965711938179147</v>
+        <v>0.04284574258344266</v>
       </c>
       <c r="Q20">
-        <v>4.657863489390571</v>
+        <v>5.55865193323</v>
       </c>
       <c r="R20">
-        <v>4.657863489390571</v>
+        <v>33.35191159938</v>
       </c>
       <c r="S20">
-        <v>0.03196176968584078</v>
+        <v>0.02514698328573131</v>
       </c>
       <c r="T20">
-        <v>0.03196176968584078</v>
+        <v>0.0194913347576336</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.018596952689251</v>
+        <v>9.447223666666668</v>
       </c>
       <c r="H21">
-        <v>8.018596952689251</v>
+        <v>28.341671</v>
       </c>
       <c r="I21">
-        <v>0.4012418467287282</v>
+        <v>0.4198236412129101</v>
       </c>
       <c r="J21">
-        <v>0.4012418467287282</v>
+        <v>0.4549188223234542</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.83225717595595</v>
+        <v>3.33196</v>
       </c>
       <c r="N21">
-        <v>2.83225717595595</v>
+        <v>9.99588</v>
       </c>
       <c r="O21">
-        <v>0.3883907796421041</v>
+        <v>0.3391981681178738</v>
       </c>
       <c r="P21">
-        <v>0.3883907796421041</v>
+        <v>0.3639430491468098</v>
       </c>
       <c r="Q21">
-        <v>22.71072876035264</v>
+        <v>31.47777136838667</v>
       </c>
       <c r="R21">
-        <v>22.71072876035264</v>
+        <v>283.29994231548</v>
       </c>
       <c r="S21">
-        <v>0.1558386336760084</v>
+        <v>0.1424034100319946</v>
       </c>
       <c r="T21">
-        <v>0.1558386336760084</v>
+        <v>0.1655645433106737</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.018596952689251</v>
+        <v>9.447223666666668</v>
       </c>
       <c r="H22">
-        <v>8.018596952689251</v>
+        <v>28.341671</v>
       </c>
       <c r="I22">
-        <v>0.4012418467287282</v>
+        <v>0.4198236412129101</v>
       </c>
       <c r="J22">
-        <v>0.4012418467287282</v>
+        <v>0.4549188223234542</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.31456670115774</v>
+        <v>1.703133333333334</v>
       </c>
       <c r="N22">
-        <v>1.31456670115774</v>
+        <v>5.109400000000001</v>
       </c>
       <c r="O22">
-        <v>0.1802680880424908</v>
+        <v>0.173381345132341</v>
       </c>
       <c r="P22">
-        <v>0.1802680880424908</v>
+        <v>0.1860297057698482</v>
       </c>
       <c r="Q22">
-        <v>10.54098054401021</v>
+        <v>16.08988153415556</v>
       </c>
       <c r="R22">
-        <v>10.54098054401021</v>
+        <v>144.8089338074</v>
       </c>
       <c r="S22">
-        <v>0.07233110055242596</v>
+        <v>0.07278958763185166</v>
       </c>
       <c r="T22">
-        <v>0.07233110055242596</v>
+        <v>0.08462841466599803</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.018596952689251</v>
+        <v>9.447223666666668</v>
       </c>
       <c r="H23">
-        <v>8.018596952689251</v>
+        <v>28.341671</v>
       </c>
       <c r="I23">
-        <v>0.4012418467287282</v>
+        <v>0.4198236412129101</v>
       </c>
       <c r="J23">
-        <v>0.4012418467287282</v>
+        <v>0.4549188223234542</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.48518049587064</v>
+        <v>2.225409</v>
       </c>
       <c r="N23">
-        <v>1.48518049587064</v>
+        <v>6.676227000000001</v>
       </c>
       <c r="O23">
-        <v>0.2036645597007805</v>
+        <v>0.2265497353248627</v>
       </c>
       <c r="P23">
-        <v>0.2036645597007805</v>
+        <v>0.2430767887545928</v>
       </c>
       <c r="Q23">
-        <v>11.90906379838182</v>
+        <v>21.02393657281301</v>
       </c>
       <c r="R23">
-        <v>11.90906379838182</v>
+        <v>189.215429155317</v>
       </c>
       <c r="S23">
-        <v>0.08171874404753449</v>
+        <v>0.09511093479990491</v>
       </c>
       <c r="T23">
-        <v>0.08171874404753449</v>
+        <v>0.1105802064744064</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.018596952689251</v>
+        <v>9.447223666666668</v>
       </c>
       <c r="H24">
-        <v>8.018596952689251</v>
+        <v>28.341671</v>
       </c>
       <c r="I24">
-        <v>0.4012418467287282</v>
+        <v>0.4198236412129101</v>
       </c>
       <c r="J24">
-        <v>0.4012418467287282</v>
+        <v>0.4549188223234542</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.376180396513018</v>
+        <v>0.558907</v>
       </c>
       <c r="N24">
-        <v>0.376180396513018</v>
+        <v>1.676721</v>
       </c>
       <c r="O24">
-        <v>0.05158606313300387</v>
+        <v>0.05689751093898382</v>
       </c>
       <c r="P24">
-        <v>0.05158606313300387</v>
+        <v>0.06104824720869879</v>
       </c>
       <c r="Q24">
-        <v>3.01643898114072</v>
+        <v>5.280119437865667</v>
       </c>
       <c r="R24">
-        <v>3.01643898114072</v>
+        <v>47.521074940791</v>
       </c>
       <c r="S24">
-        <v>0.02069848723695124</v>
+        <v>0.02388692021835557</v>
       </c>
       <c r="T24">
-        <v>0.02069848723695124</v>
+        <v>0.02777199672509235</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.018596952689251</v>
+        <v>9.447223666666668</v>
       </c>
       <c r="H25">
-        <v>8.018596952689251</v>
+        <v>28.341671</v>
       </c>
       <c r="I25">
-        <v>0.4012418467287282</v>
+        <v>0.4198236412129101</v>
       </c>
       <c r="J25">
-        <v>0.4012418467287282</v>
+        <v>0.4549188223234542</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.703219992409914</v>
+        <v>1.415249</v>
       </c>
       <c r="N25">
-        <v>0.703219992409914</v>
+        <v>2.830498</v>
       </c>
       <c r="O25">
-        <v>0.09643339009982929</v>
+        <v>0.1440743190886604</v>
       </c>
       <c r="P25">
-        <v>0.09643339009982929</v>
+        <v>0.1030564665366078</v>
       </c>
       <c r="Q25">
-        <v>5.638837688208294</v>
+        <v>13.37017384702633</v>
       </c>
       <c r="R25">
-        <v>5.638837688208294</v>
+        <v>80.221043082158</v>
       </c>
       <c r="S25">
-        <v>0.03869311152996736</v>
+        <v>0.06048580524507207</v>
       </c>
       <c r="T25">
-        <v>0.03869311152996736</v>
+        <v>0.04688232638965007</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.7995180562698549</v>
+        <v>1.045218333333333</v>
       </c>
       <c r="H26">
-        <v>0.7995180562698549</v>
+        <v>3.135655</v>
       </c>
       <c r="I26">
-        <v>0.04000701161106383</v>
+        <v>0.04644828809449759</v>
       </c>
       <c r="J26">
-        <v>0.04000701161106383</v>
+        <v>0.05033113537351593</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.580882605382533</v>
+        <v>0.58839</v>
       </c>
       <c r="N26">
-        <v>0.580882605382533</v>
+        <v>1.17678</v>
       </c>
       <c r="O26">
-        <v>0.07965711938179147</v>
+        <v>0.05989892139727841</v>
       </c>
       <c r="P26">
-        <v>0.07965711938179147</v>
+        <v>0.04284574258344266</v>
       </c>
       <c r="Q26">
-        <v>0.464426131576412</v>
+        <v>0.61499601515</v>
       </c>
       <c r="R26">
-        <v>0.464426131576412</v>
+        <v>3.6899760909</v>
       </c>
       <c r="S26">
-        <v>0.003186843300011229</v>
+        <v>0.002782202357610454</v>
       </c>
       <c r="T26">
-        <v>0.003186843300011229</v>
+        <v>0.002156474870146069</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.7995180562698549</v>
+        <v>1.045218333333333</v>
       </c>
       <c r="H27">
-        <v>0.7995180562698549</v>
+        <v>3.135655</v>
       </c>
       <c r="I27">
-        <v>0.04000701161106383</v>
+        <v>0.04644828809449759</v>
       </c>
       <c r="J27">
-        <v>0.04000701161106383</v>
+        <v>0.05033113537351593</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.83225717595595</v>
+        <v>3.33196</v>
       </c>
       <c r="N27">
-        <v>2.83225717595595</v>
+        <v>9.99588</v>
       </c>
       <c r="O27">
-        <v>0.3883907796421041</v>
+        <v>0.3391981681178738</v>
       </c>
       <c r="P27">
-        <v>0.3883907796421041</v>
+        <v>0.3639430491468098</v>
       </c>
       <c r="Q27">
-        <v>2.26444075217665</v>
+        <v>3.482625677933334</v>
       </c>
       <c r="R27">
-        <v>2.26444075217665</v>
+        <v>31.3436311014</v>
       </c>
       <c r="S27">
-        <v>0.01553835443077179</v>
+        <v>0.01575517423386483</v>
       </c>
       <c r="T27">
-        <v>0.01553835443077179</v>
+        <v>0.01831766687485824</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.7995180562698549</v>
+        <v>1.045218333333333</v>
       </c>
       <c r="H28">
-        <v>0.7995180562698549</v>
+        <v>3.135655</v>
       </c>
       <c r="I28">
-        <v>0.04000701161106383</v>
+        <v>0.04644828809449759</v>
       </c>
       <c r="J28">
-        <v>0.04000701161106383</v>
+        <v>0.05033113537351593</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.31456670115774</v>
+        <v>1.703133333333334</v>
       </c>
       <c r="N28">
-        <v>1.31456670115774</v>
+        <v>5.109400000000001</v>
       </c>
       <c r="O28">
-        <v>0.1802680880424908</v>
+        <v>0.173381345132341</v>
       </c>
       <c r="P28">
-        <v>0.1802680880424908</v>
+        <v>0.1860297057698482</v>
       </c>
       <c r="Q28">
-        <v>1.051019813746711</v>
+        <v>1.780146184111111</v>
       </c>
       <c r="R28">
-        <v>1.051019813746711</v>
+        <v>16.021315657</v>
       </c>
       <c r="S28">
-        <v>0.007211987491420204</v>
+        <v>0.008053266668918492</v>
       </c>
       <c r="T28">
-        <v>0.007211987491420204</v>
+        <v>0.009363086304597567</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.7995180562698549</v>
+        <v>1.045218333333333</v>
       </c>
       <c r="H29">
-        <v>0.7995180562698549</v>
+        <v>3.135655</v>
       </c>
       <c r="I29">
-        <v>0.04000701161106383</v>
+        <v>0.04644828809449759</v>
       </c>
       <c r="J29">
-        <v>0.04000701161106383</v>
+        <v>0.05033113537351593</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.48518049587064</v>
+        <v>2.225409</v>
       </c>
       <c r="N29">
-        <v>1.48518049587064</v>
+        <v>6.676227000000001</v>
       </c>
       <c r="O29">
-        <v>0.2036645597007805</v>
+        <v>0.2265497353248627</v>
       </c>
       <c r="P29">
-        <v>0.2036645597007805</v>
+        <v>0.2430767887545928</v>
       </c>
       <c r="Q29">
-        <v>1.187428623268393</v>
+        <v>2.326038285965001</v>
       </c>
       <c r="R29">
-        <v>1.187428623268393</v>
+        <v>20.934344573685</v>
       </c>
       <c r="S29">
-        <v>0.008148010404711328</v>
+        <v>0.0105228473741014</v>
       </c>
       <c r="T29">
-        <v>0.008148010404711328</v>
+        <v>0.01223433076096694</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.7995180562698549</v>
+        <v>1.045218333333333</v>
       </c>
       <c r="H30">
-        <v>0.7995180562698549</v>
+        <v>3.135655</v>
       </c>
       <c r="I30">
-        <v>0.04000701161106383</v>
+        <v>0.04644828809449759</v>
       </c>
       <c r="J30">
-        <v>0.04000701161106383</v>
+        <v>0.05033113537351593</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.376180396513018</v>
+        <v>0.558907</v>
       </c>
       <c r="N30">
-        <v>0.376180396513018</v>
+        <v>1.676721</v>
       </c>
       <c r="O30">
-        <v>0.05158606313300387</v>
+        <v>0.05689751093898382</v>
       </c>
       <c r="P30">
-        <v>0.05158606313300387</v>
+        <v>0.06104824720869879</v>
       </c>
       <c r="Q30">
-        <v>0.3007630194269115</v>
+        <v>0.5841798430283334</v>
       </c>
       <c r="R30">
-        <v>0.3007630194269115</v>
+        <v>5.257618587255</v>
       </c>
       <c r="S30">
-        <v>0.002063804226731158</v>
+        <v>0.002642791979953749</v>
       </c>
       <c r="T30">
-        <v>0.002063804226731158</v>
+        <v>0.003072627594576885</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.7995180562698549</v>
+        <v>1.045218333333333</v>
       </c>
       <c r="H31">
-        <v>0.7995180562698549</v>
+        <v>3.135655</v>
       </c>
       <c r="I31">
-        <v>0.04000701161106383</v>
+        <v>0.04644828809449759</v>
       </c>
       <c r="J31">
-        <v>0.04000701161106383</v>
+        <v>0.05033113537351593</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.703219992409914</v>
+        <v>1.415249</v>
       </c>
       <c r="N31">
-        <v>0.703219992409914</v>
+        <v>2.830498</v>
       </c>
       <c r="O31">
-        <v>0.09643339009982929</v>
+        <v>0.1440743190886604</v>
       </c>
       <c r="P31">
-        <v>0.09643339009982929</v>
+        <v>0.1030564665366078</v>
       </c>
       <c r="Q31">
-        <v>0.5622370814616765</v>
+        <v>1.479244201031667</v>
       </c>
       <c r="R31">
-        <v>0.5622370814616765</v>
+        <v>8.87546520619</v>
       </c>
       <c r="S31">
-        <v>0.003858011757418118</v>
+        <v>0.00669200548004867</v>
       </c>
       <c r="T31">
-        <v>0.003858011757418118</v>
+        <v>0.005186948968370219</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.63255570614407</v>
+        <v>4.662958</v>
       </c>
       <c r="H32">
-        <v>4.63255570614407</v>
+        <v>9.325915999999999</v>
       </c>
       <c r="I32">
-        <v>0.2318080354423556</v>
+        <v>0.2072164347383965</v>
       </c>
       <c r="J32">
-        <v>0.2318080354423556</v>
+        <v>0.1496924695727171</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.580882605382533</v>
+        <v>0.58839</v>
       </c>
       <c r="N32">
-        <v>0.580882605382533</v>
+        <v>1.17678</v>
       </c>
       <c r="O32">
-        <v>0.07965711938179147</v>
+        <v>0.05989892139727841</v>
       </c>
       <c r="P32">
-        <v>0.07965711938179147</v>
+        <v>0.04284574258344266</v>
       </c>
       <c r="Q32">
-        <v>2.690971028164688</v>
+        <v>2.74363785762</v>
       </c>
       <c r="R32">
-        <v>2.690971028164688</v>
+        <v>10.97455143048</v>
       </c>
       <c r="S32">
-        <v>0.01846516035289027</v>
+        <v>0.01241204093661948</v>
       </c>
       <c r="T32">
-        <v>0.01846516035289027</v>
+        <v>0.006413685017992459</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.63255570614407</v>
+        <v>4.662958</v>
       </c>
       <c r="H33">
-        <v>4.63255570614407</v>
+        <v>9.325915999999999</v>
       </c>
       <c r="I33">
-        <v>0.2318080354423556</v>
+        <v>0.2072164347383965</v>
       </c>
       <c r="J33">
-        <v>0.2318080354423556</v>
+        <v>0.1496924695727171</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>2.83225717595595</v>
+        <v>3.33196</v>
       </c>
       <c r="N33">
-        <v>2.83225717595595</v>
+        <v>9.99588</v>
       </c>
       <c r="O33">
-        <v>0.3883907796421041</v>
+        <v>0.3391981681178738</v>
       </c>
       <c r="P33">
-        <v>0.3883907796421041</v>
+        <v>0.3639430491468098</v>
       </c>
       <c r="Q33">
-        <v>13.12058914174223</v>
+        <v>15.53678953768</v>
       </c>
       <c r="R33">
-        <v>13.12058914174223</v>
+        <v>93.22073722607999</v>
       </c>
       <c r="S33">
-        <v>0.09003210361276098</v>
+        <v>0.07028743506718106</v>
       </c>
       <c r="T33">
-        <v>0.09003210361276098</v>
+        <v>0.0544795338106107</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.63255570614407</v>
+        <v>4.662958</v>
       </c>
       <c r="H34">
-        <v>4.63255570614407</v>
+        <v>9.325915999999999</v>
       </c>
       <c r="I34">
-        <v>0.2318080354423556</v>
+        <v>0.2072164347383965</v>
       </c>
       <c r="J34">
-        <v>0.2318080354423556</v>
+        <v>0.1496924695727171</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.31456670115774</v>
+        <v>1.703133333333334</v>
       </c>
       <c r="N34">
-        <v>1.31456670115774</v>
+        <v>5.109400000000001</v>
       </c>
       <c r="O34">
-        <v>0.1802680880424908</v>
+        <v>0.173381345132341</v>
       </c>
       <c r="P34">
-        <v>0.1802680880424908</v>
+        <v>0.1860297057698482</v>
       </c>
       <c r="Q34">
-        <v>6.089803472555276</v>
+        <v>7.941639201733334</v>
       </c>
       <c r="R34">
-        <v>6.089803472555276</v>
+        <v>47.64983521040001</v>
       </c>
       <c r="S34">
-        <v>0.04178759134207938</v>
+        <v>0.03592746418847114</v>
       </c>
       <c r="T34">
-        <v>0.04178759134207938</v>
+        <v>0.02784724607057451</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.63255570614407</v>
+        <v>4.662958</v>
       </c>
       <c r="H35">
-        <v>4.63255570614407</v>
+        <v>9.325915999999999</v>
       </c>
       <c r="I35">
-        <v>0.2318080354423556</v>
+        <v>0.2072164347383965</v>
       </c>
       <c r="J35">
-        <v>0.2318080354423556</v>
+        <v>0.1496924695727171</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.48518049587064</v>
+        <v>2.225409</v>
       </c>
       <c r="N35">
-        <v>1.48518049587064</v>
+        <v>6.676227000000001</v>
       </c>
       <c r="O35">
-        <v>0.2036645597007805</v>
+        <v>0.2265497353248627</v>
       </c>
       <c r="P35">
-        <v>0.2036645597007805</v>
+        <v>0.2430767887545928</v>
       </c>
       <c r="Q35">
-        <v>6.880181380799414</v>
+        <v>10.376988699822</v>
       </c>
       <c r="R35">
-        <v>6.880181380799414</v>
+        <v>62.261932198932</v>
       </c>
       <c r="S35">
-        <v>0.04721108147347027</v>
+        <v>0.04694482844494542</v>
       </c>
       <c r="T35">
-        <v>0.04721108147347027</v>
+        <v>0.03638676480448065</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.63255570614407</v>
+        <v>4.662958</v>
       </c>
       <c r="H36">
-        <v>4.63255570614407</v>
+        <v>9.325915999999999</v>
       </c>
       <c r="I36">
-        <v>0.2318080354423556</v>
+        <v>0.2072164347383965</v>
       </c>
       <c r="J36">
-        <v>0.2318080354423556</v>
+        <v>0.1496924695727171</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.376180396513018</v>
+        <v>0.558907</v>
       </c>
       <c r="N36">
-        <v>0.376180396513018</v>
+        <v>1.676721</v>
       </c>
       <c r="O36">
-        <v>0.05158606313300387</v>
+        <v>0.05689751093898382</v>
       </c>
       <c r="P36">
-        <v>0.05158606313300387</v>
+        <v>0.06104824720869879</v>
       </c>
       <c r="Q36">
-        <v>1.74267664240592</v>
+        <v>2.606159866906</v>
       </c>
       <c r="R36">
-        <v>1.74267664240592</v>
+        <v>15.636959201436</v>
       </c>
       <c r="S36">
-        <v>0.01195806395106696</v>
+        <v>0.01179009936226514</v>
       </c>
       <c r="T36">
-        <v>0.01195806395106696</v>
+        <v>0.009138462887755853</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.63255570614407</v>
+        <v>4.662958</v>
       </c>
       <c r="H37">
-        <v>4.63255570614407</v>
+        <v>9.325915999999999</v>
       </c>
       <c r="I37">
-        <v>0.2318080354423556</v>
+        <v>0.2072164347383965</v>
       </c>
       <c r="J37">
-        <v>0.2318080354423556</v>
+        <v>0.1496924695727171</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.703219992409914</v>
+        <v>1.415249</v>
       </c>
       <c r="N37">
-        <v>0.703219992409914</v>
+        <v>2.830498</v>
       </c>
       <c r="O37">
-        <v>0.09643339009982929</v>
+        <v>0.1440743190886604</v>
       </c>
       <c r="P37">
-        <v>0.09643339009982929</v>
+        <v>0.1030564665366078</v>
       </c>
       <c r="Q37">
-        <v>3.257705788513137</v>
+        <v>6.599246646541999</v>
       </c>
       <c r="R37">
-        <v>3.257705788513137</v>
+        <v>26.396986586168</v>
       </c>
       <c r="S37">
-        <v>0.02235403471008773</v>
+        <v>0.0298545667389143</v>
       </c>
       <c r="T37">
-        <v>0.02235403471008773</v>
+        <v>0.01542677698130289</v>
       </c>
     </row>
   </sheetData>
